--- a/fjbs/部署步骤 - 晋城.xlsx
+++ b/fjbs/部署步骤 - 晋城.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\山西煤炭\分级部署\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cut\miao\fjbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="7950" tabRatio="528" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="7950" tabRatio="528" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="远程" sheetId="1" r:id="rId1"/>
     <sheet name="南营河" sheetId="19" r:id="rId2"/>
+    <sheet name="大通" sheetId="20" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">远程!$1:$95</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="239">
   <si>
     <t>序号</t>
   </si>
@@ -1166,6 +1167,26 @@
     <t>山西陵川崇安南营河煤业有限公司</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>11.104.88.18</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.104.88.17</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高平</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大通</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西煤炭运销集团大通煤业有限公司</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1345,7 +1366,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1484,9 +1505,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1526,17 +1544,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1915,16 +1930,16 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50">
+      <c r="A2" s="49">
         <v>1</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="22">
         <v>140521003</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="53" t="s">
         <v>195</v>
       </c>
       <c r="E2" s="23" t="s">
@@ -1955,12 +1970,12 @@
       <c r="N2" s="21"/>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="22">
         <v>140521003</v>
       </c>
-      <c r="D3" s="55"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="23" t="s">
         <v>14</v>
       </c>
@@ -1987,14 +2002,14 @@
       <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="50">
+      <c r="A4" s="49">
         <v>2</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="22">
         <v>140521005</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="23" t="s">
         <v>24</v>
       </c>
@@ -2023,12 +2038,12 @@
       <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="50"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="22">
         <v>140521005</v>
       </c>
-      <c r="D5" s="55"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="23" t="s">
         <v>24</v>
       </c>
@@ -2055,14 +2070,14 @@
       <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="50">
+      <c r="A6" s="49">
         <v>3</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="22">
         <v>140521002</v>
       </c>
-      <c r="D6" s="55"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="23" t="s">
         <v>29</v>
       </c>
@@ -2091,12 +2106,12 @@
       <c r="N6" s="21"/>
     </row>
     <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="50"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="22">
         <v>140521002</v>
       </c>
-      <c r="D7" s="55"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="23" t="s">
         <v>29</v>
       </c>
@@ -2123,14 +2138,14 @@
       <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="50">
+      <c r="A8" s="49">
         <v>4</v>
       </c>
-      <c r="B8" s="52"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="22">
         <v>140521004</v>
       </c>
-      <c r="D8" s="55"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="23" t="s">
         <v>32</v>
       </c>
@@ -2159,12 +2174,12 @@
       <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="50"/>
-      <c r="B9" s="52"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="22">
         <v>140521004</v>
       </c>
-      <c r="D9" s="55"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="23" t="s">
         <v>32</v>
       </c>
@@ -2191,14 +2206,14 @@
       <c r="N9" s="21"/>
     </row>
     <row r="10" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="50">
+      <c r="A10" s="49">
         <v>5</v>
       </c>
-      <c r="B10" s="52"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="22">
         <v>140521013</v>
       </c>
-      <c r="D10" s="55"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="23" t="s">
         <v>35</v>
       </c>
@@ -2227,12 +2242,12 @@
       <c r="N10" s="21"/>
     </row>
     <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="50"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="22">
         <v>140521013</v>
       </c>
-      <c r="D11" s="55"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="23" t="s">
         <v>35</v>
       </c>
@@ -2259,14 +2274,14 @@
       <c r="N11" s="21"/>
     </row>
     <row r="12" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="50">
+      <c r="A12" s="49">
         <v>6</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="22">
         <v>140521014</v>
       </c>
-      <c r="D12" s="55"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="23" t="s">
         <v>38</v>
       </c>
@@ -2295,12 +2310,12 @@
       <c r="N12" s="21"/>
     </row>
     <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="50"/>
-      <c r="B13" s="52"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="22">
         <v>140521014</v>
       </c>
-      <c r="D13" s="55"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="23" t="s">
         <v>38</v>
       </c>
@@ -2327,14 +2342,14 @@
       <c r="N13" s="21"/>
     </row>
     <row r="14" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="50">
+      <c r="A14" s="49">
         <v>7</v>
       </c>
-      <c r="B14" s="52"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="22">
         <v>140521015</v>
       </c>
-      <c r="D14" s="55"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="23" t="s">
         <v>41</v>
       </c>
@@ -2363,12 +2378,12 @@
       <c r="N14" s="21"/>
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="50"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="22">
         <v>140521015</v>
       </c>
-      <c r="D15" s="55"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="23" t="s">
         <v>41</v>
       </c>
@@ -2395,14 +2410,14 @@
       <c r="N15" s="21"/>
     </row>
     <row r="16" spans="1:14" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="50">
+      <c r="A16" s="49">
         <v>8</v>
       </c>
-      <c r="B16" s="52"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="22">
         <v>140521010</v>
       </c>
-      <c r="D16" s="55"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="23" t="s">
         <v>44</v>
       </c>
@@ -2431,12 +2446,12 @@
       <c r="N16" s="5"/>
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="50"/>
-      <c r="B17" s="52"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="22">
         <v>140521010</v>
       </c>
-      <c r="D17" s="55"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="45" t="s">
         <v>193</v>
       </c>
@@ -2463,14 +2478,14 @@
       <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="50">
+      <c r="A18" s="49">
         <v>9</v>
       </c>
-      <c r="B18" s="52"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="14">
         <v>140581014</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="49" t="s">
         <v>47</v>
       </c>
       <c r="E18" s="15" t="s">
@@ -2501,12 +2516,12 @@
       <c r="N18" s="21"/>
     </row>
     <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="50"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="14">
         <v>140581014</v>
       </c>
-      <c r="D19" s="50"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="15" t="s">
         <v>48</v>
       </c>
@@ -2533,14 +2548,14 @@
       <c r="N19" s="21"/>
     </row>
     <row r="20" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="50">
+      <c r="A20" s="49">
         <v>10</v>
       </c>
-      <c r="B20" s="52"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="14">
         <v>140581028</v>
       </c>
-      <c r="D20" s="50"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="15" t="s">
         <v>52</v>
       </c>
@@ -2569,12 +2584,12 @@
       <c r="N20" s="21"/>
     </row>
     <row r="21" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="50"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="14">
         <v>140581028</v>
       </c>
-      <c r="D21" s="56"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="15" t="s">
         <v>52</v>
       </c>
@@ -2601,14 +2616,14 @@
       <c r="N21" s="21"/>
     </row>
     <row r="22" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="50">
+      <c r="A22" s="49">
         <v>11</v>
       </c>
-      <c r="B22" s="52"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="14">
         <v>140581032</v>
       </c>
-      <c r="D22" s="50"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="15" t="s">
         <v>55</v>
       </c>
@@ -2637,12 +2652,12 @@
       <c r="N22" s="21"/>
     </row>
     <row r="23" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="50"/>
-      <c r="B23" s="52"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="14">
         <v>140581032</v>
       </c>
-      <c r="D23" s="50"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="15" t="s">
         <v>55</v>
       </c>
@@ -2669,14 +2684,14 @@
       <c r="N23" s="21"/>
     </row>
     <row r="24" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="50">
+      <c r="A24" s="49">
         <v>12</v>
       </c>
-      <c r="B24" s="52"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="14">
         <v>140581026</v>
       </c>
-      <c r="D24" s="50"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="15" t="s">
         <v>58</v>
       </c>
@@ -2705,12 +2720,12 @@
       <c r="N24" s="21"/>
     </row>
     <row r="25" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="50"/>
-      <c r="B25" s="52"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="14">
         <v>140581026</v>
       </c>
-      <c r="D25" s="50"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="15" t="s">
         <v>58</v>
       </c>
@@ -2737,14 +2752,14 @@
       <c r="N25" s="21"/>
     </row>
     <row r="26" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="50">
+      <c r="A26" s="49">
         <v>13</v>
       </c>
-      <c r="B26" s="52"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="14">
         <v>140581023</v>
       </c>
-      <c r="D26" s="50"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="15" t="s">
         <v>61</v>
       </c>
@@ -2773,12 +2788,12 @@
       <c r="N26" s="21"/>
     </row>
     <row r="27" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="50"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="14">
         <v>140581023</v>
       </c>
-      <c r="D27" s="50"/>
+      <c r="D27" s="49"/>
       <c r="E27" s="15" t="s">
         <v>61</v>
       </c>
@@ -2805,14 +2820,14 @@
       <c r="N27" s="21"/>
     </row>
     <row r="28" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="50">
+      <c r="A28" s="49">
         <v>14</v>
       </c>
-      <c r="B28" s="52"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="14">
         <v>140581029</v>
       </c>
-      <c r="D28" s="50"/>
+      <c r="D28" s="49"/>
       <c r="E28" s="15" t="s">
         <v>64</v>
       </c>
@@ -2841,12 +2856,12 @@
       <c r="N28" s="21"/>
     </row>
     <row r="29" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="50"/>
-      <c r="B29" s="52"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="14">
         <v>140581029</v>
       </c>
-      <c r="D29" s="50"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="15" t="s">
         <v>64</v>
       </c>
@@ -2873,14 +2888,14 @@
       <c r="N29" s="21"/>
     </row>
     <row r="30" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="50">
+      <c r="A30" s="49">
         <v>15</v>
       </c>
-      <c r="B30" s="52"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="14">
         <v>140581033</v>
       </c>
-      <c r="D30" s="50"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="15" t="s">
         <v>67</v>
       </c>
@@ -2907,12 +2922,12 @@
       <c r="N30" s="21"/>
     </row>
     <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="50"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="14">
         <v>140581033</v>
       </c>
-      <c r="D31" s="50"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="15" t="s">
         <v>67</v>
       </c>
@@ -2939,14 +2954,14 @@
       <c r="N31" s="21"/>
     </row>
     <row r="32" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="50">
+      <c r="A32" s="49">
         <v>16</v>
       </c>
-      <c r="B32" s="52"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="14">
         <v>140581003</v>
       </c>
-      <c r="D32" s="50"/>
+      <c r="D32" s="49"/>
       <c r="E32" s="15" t="s">
         <v>71</v>
       </c>
@@ -2975,12 +2990,12 @@
       <c r="N32" s="21"/>
     </row>
     <row r="33" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="50"/>
-      <c r="B33" s="52"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="14">
         <v>140581003</v>
       </c>
-      <c r="D33" s="50"/>
+      <c r="D33" s="49"/>
       <c r="E33" s="15" t="s">
         <v>71</v>
       </c>
@@ -3007,14 +3022,14 @@
       <c r="N33" s="21"/>
     </row>
     <row r="34" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="50">
+      <c r="A34" s="49">
         <v>17</v>
       </c>
-      <c r="B34" s="52"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="14">
         <v>140581005</v>
       </c>
-      <c r="D34" s="50"/>
+      <c r="D34" s="49"/>
       <c r="E34" s="15" t="s">
         <v>75</v>
       </c>
@@ -3041,12 +3056,12 @@
       <c r="N34" s="21"/>
     </row>
     <row r="35" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="50"/>
-      <c r="B35" s="52"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="14">
         <v>140581005</v>
       </c>
-      <c r="D35" s="50"/>
+      <c r="D35" s="49"/>
       <c r="E35" s="15" t="s">
         <v>75</v>
       </c>
@@ -3073,14 +3088,14 @@
       <c r="N35" s="21"/>
     </row>
     <row r="36" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="50">
+      <c r="A36" s="49">
         <v>18</v>
       </c>
-      <c r="B36" s="52"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="14">
         <v>140581010</v>
       </c>
-      <c r="D36" s="50"/>
+      <c r="D36" s="49"/>
       <c r="E36" s="15" t="s">
         <v>80</v>
       </c>
@@ -3107,12 +3122,12 @@
       <c r="N36" s="21"/>
     </row>
     <row r="37" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="50"/>
-      <c r="B37" s="52"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="14">
         <v>140581010</v>
       </c>
-      <c r="D37" s="50"/>
+      <c r="D37" s="49"/>
       <c r="E37" s="15" t="s">
         <v>80</v>
       </c>
@@ -3139,14 +3154,14 @@
       <c r="N37" s="21"/>
     </row>
     <row r="38" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="50">
+      <c r="A38" s="49">
         <v>19</v>
       </c>
-      <c r="B38" s="52"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="14">
         <v>140581012</v>
       </c>
-      <c r="D38" s="50"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="15" t="s">
         <v>84</v>
       </c>
@@ -3173,12 +3188,12 @@
       <c r="N38" s="21"/>
     </row>
     <row r="39" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="50"/>
-      <c r="B39" s="52"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="14">
         <v>140581012</v>
       </c>
-      <c r="D39" s="50"/>
+      <c r="D39" s="49"/>
       <c r="E39" s="15" t="s">
         <v>84</v>
       </c>
@@ -3205,12 +3220,12 @@
       <c r="N39" s="21"/>
     </row>
     <row r="40" spans="1:14" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="50">
+      <c r="A40" s="49">
         <v>20</v>
       </c>
-      <c r="B40" s="52"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="17"/>
-      <c r="D40" s="56"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="18" t="s">
         <v>88</v>
       </c>
@@ -3236,10 +3251,10 @@
       <c r="M40" s="17"/>
     </row>
     <row r="41" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="50"/>
-      <c r="B41" s="52"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="51"/>
       <c r="C41" s="17"/>
-      <c r="D41" s="56"/>
+      <c r="D41" s="55"/>
       <c r="E41" s="36" t="s">
         <v>197</v>
       </c>
@@ -3265,12 +3280,12 @@
       <c r="M41" s="17"/>
     </row>
     <row r="42" spans="1:14" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="50">
+      <c r="A42" s="49">
         <v>21</v>
       </c>
-      <c r="B42" s="52"/>
+      <c r="B42" s="51"/>
       <c r="C42" s="17"/>
-      <c r="D42" s="56"/>
+      <c r="D42" s="55"/>
       <c r="E42" s="18" t="s">
         <v>91</v>
       </c>
@@ -3296,10 +3311,10 @@
       <c r="M42" s="17"/>
     </row>
     <row r="43" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="50"/>
-      <c r="B43" s="52"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="51"/>
       <c r="C43" s="17"/>
-      <c r="D43" s="56"/>
+      <c r="D43" s="55"/>
       <c r="E43" s="36" t="s">
         <v>198</v>
       </c>
@@ -3325,14 +3340,14 @@
       <c r="M43" s="17"/>
     </row>
     <row r="44" spans="1:14" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="50">
+      <c r="A44" s="49">
         <v>22</v>
       </c>
-      <c r="B44" s="52"/>
+      <c r="B44" s="51"/>
       <c r="C44" s="17">
         <v>140581008</v>
       </c>
-      <c r="D44" s="56"/>
+      <c r="D44" s="55"/>
       <c r="E44" s="18" t="s">
         <v>94</v>
       </c>
@@ -3358,12 +3373,12 @@
       <c r="M44" s="17"/>
     </row>
     <row r="45" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="50"/>
-      <c r="B45" s="52"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="17">
         <v>140581008</v>
       </c>
-      <c r="D45" s="56"/>
+      <c r="D45" s="55"/>
       <c r="E45" s="36" t="s">
         <v>200</v>
       </c>
@@ -3389,14 +3404,14 @@
       <c r="M45" s="17"/>
     </row>
     <row r="46" spans="1:14" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="50">
+      <c r="A46" s="49">
         <v>23</v>
       </c>
-      <c r="B46" s="52"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="17">
         <v>140581002</v>
       </c>
-      <c r="D46" s="56"/>
+      <c r="D46" s="55"/>
       <c r="E46" s="18" t="s">
         <v>97</v>
       </c>
@@ -3422,12 +3437,12 @@
       <c r="M46" s="17"/>
     </row>
     <row r="47" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="50"/>
-      <c r="B47" s="52"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="22">
         <v>140581002</v>
       </c>
-      <c r="D47" s="56"/>
+      <c r="D47" s="55"/>
       <c r="E47" s="45" t="s">
         <v>202</v>
       </c>
@@ -3453,12 +3468,12 @@
       <c r="M47" s="22"/>
     </row>
     <row r="48" spans="1:14" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="50">
+      <c r="A48" s="49">
         <v>24</v>
       </c>
-      <c r="B48" s="52"/>
+      <c r="B48" s="51"/>
       <c r="C48" s="17"/>
-      <c r="D48" s="56"/>
+      <c r="D48" s="55"/>
       <c r="E48" s="18" t="s">
         <v>99</v>
       </c>
@@ -3484,10 +3499,10 @@
       <c r="M48" s="17"/>
     </row>
     <row r="49" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="50"/>
-      <c r="B49" s="52"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="17"/>
-      <c r="D49" s="56"/>
+      <c r="D49" s="55"/>
       <c r="E49" s="36" t="s">
         <v>203</v>
       </c>
@@ -3513,14 +3528,14 @@
       <c r="M49" s="17"/>
     </row>
     <row r="50" spans="1:14" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="50">
+      <c r="A50" s="49">
         <v>25</v>
       </c>
-      <c r="B50" s="52"/>
+      <c r="B50" s="51"/>
       <c r="C50" s="17">
         <v>140581011</v>
       </c>
-      <c r="D50" s="56"/>
+      <c r="D50" s="55"/>
       <c r="E50" s="18" t="s">
         <v>101</v>
       </c>
@@ -3546,12 +3561,12 @@
       <c r="M50" s="17"/>
     </row>
     <row r="51" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="50"/>
-      <c r="B51" s="52"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="17">
         <v>140581011</v>
       </c>
-      <c r="D51" s="56"/>
+      <c r="D51" s="55"/>
       <c r="E51" s="36" t="s">
         <v>206</v>
       </c>
@@ -3577,14 +3592,14 @@
       <c r="M51" s="17"/>
     </row>
     <row r="52" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="50">
+      <c r="A52" s="49">
         <v>26</v>
       </c>
-      <c r="B52" s="52"/>
+      <c r="B52" s="51"/>
       <c r="C52" s="14">
         <v>140581009</v>
       </c>
-      <c r="D52" s="50"/>
+      <c r="D52" s="49"/>
       <c r="E52" s="15" t="s">
         <v>104</v>
       </c>
@@ -3611,12 +3626,12 @@
       <c r="N52" s="21"/>
     </row>
     <row r="53" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="50"/>
-      <c r="B53" s="52"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="51"/>
       <c r="C53" s="14">
         <v>140581009</v>
       </c>
-      <c r="D53" s="50"/>
+      <c r="D53" s="49"/>
       <c r="E53" s="15" t="s">
         <v>104</v>
       </c>
@@ -3643,14 +3658,14 @@
       <c r="N53" s="21"/>
     </row>
     <row r="54" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="50">
+      <c r="A54" s="49">
         <v>27</v>
       </c>
-      <c r="B54" s="52"/>
+      <c r="B54" s="51"/>
       <c r="C54" s="14">
         <v>140522011</v>
       </c>
-      <c r="D54" s="57" t="s">
+      <c r="D54" s="56" t="s">
         <v>108</v>
       </c>
       <c r="E54" s="15" t="s">
@@ -3681,12 +3696,12 @@
       <c r="N54" s="21"/>
     </row>
     <row r="55" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="50"/>
-      <c r="B55" s="52"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="51"/>
       <c r="C55" s="14">
         <v>140522011</v>
       </c>
-      <c r="D55" s="58"/>
+      <c r="D55" s="57"/>
       <c r="E55" s="15" t="s">
         <v>109</v>
       </c>
@@ -3713,14 +3728,14 @@
       <c r="N55" s="21"/>
     </row>
     <row r="56" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="50">
+      <c r="A56" s="49">
         <v>28</v>
       </c>
-      <c r="B56" s="52"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="14">
         <v>140522012</v>
       </c>
-      <c r="D56" s="58"/>
+      <c r="D56" s="57"/>
       <c r="E56" s="15" t="s">
         <v>112</v>
       </c>
@@ -3747,12 +3762,12 @@
       <c r="N56" s="21"/>
     </row>
     <row r="57" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="50"/>
-      <c r="B57" s="52"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="51"/>
       <c r="C57" s="14">
         <v>140522012</v>
       </c>
-      <c r="D57" s="58"/>
+      <c r="D57" s="57"/>
       <c r="E57" s="15" t="s">
         <v>112</v>
       </c>
@@ -3779,14 +3794,14 @@
       <c r="N57" s="21"/>
     </row>
     <row r="58" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="50">
+      <c r="A58" s="49">
         <v>29</v>
       </c>
-      <c r="B58" s="52"/>
+      <c r="B58" s="51"/>
       <c r="C58" s="14">
         <v>140522010</v>
       </c>
-      <c r="D58" s="58"/>
+      <c r="D58" s="57"/>
       <c r="E58" s="15" t="s">
         <v>116</v>
       </c>
@@ -3813,12 +3828,12 @@
       <c r="N58" s="21"/>
     </row>
     <row r="59" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="50"/>
-      <c r="B59" s="52"/>
+      <c r="A59" s="49"/>
+      <c r="B59" s="51"/>
       <c r="C59" s="14">
         <v>140522010</v>
       </c>
-      <c r="D59" s="58"/>
+      <c r="D59" s="57"/>
       <c r="E59" s="15" t="s">
         <v>116</v>
       </c>
@@ -3845,14 +3860,14 @@
       <c r="N59" s="21"/>
     </row>
     <row r="60" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="50">
+      <c r="A60" s="49">
         <v>30</v>
       </c>
-      <c r="B60" s="52"/>
+      <c r="B60" s="51"/>
       <c r="C60" s="14">
         <v>140522020</v>
       </c>
-      <c r="D60" s="58"/>
+      <c r="D60" s="57"/>
       <c r="E60" s="15" t="s">
         <v>120</v>
       </c>
@@ -3881,12 +3896,12 @@
       <c r="N60" s="21"/>
     </row>
     <row r="61" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="50"/>
-      <c r="B61" s="52"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="14">
         <v>140522020</v>
       </c>
-      <c r="D61" s="58"/>
+      <c r="D61" s="57"/>
       <c r="E61" s="15" t="s">
         <v>120</v>
       </c>
@@ -3913,14 +3928,14 @@
       <c r="N61" s="21"/>
     </row>
     <row r="62" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="50">
+      <c r="A62" s="49">
         <v>31</v>
       </c>
-      <c r="B62" s="52"/>
+      <c r="B62" s="51"/>
       <c r="C62" s="14">
         <v>140522015</v>
       </c>
-      <c r="D62" s="58"/>
+      <c r="D62" s="57"/>
       <c r="E62" s="15" t="s">
         <v>123</v>
       </c>
@@ -3949,12 +3964,12 @@
       <c r="N62" s="21"/>
     </row>
     <row r="63" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="50"/>
-      <c r="B63" s="52"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="51"/>
       <c r="C63" s="14">
         <v>140522015</v>
       </c>
-      <c r="D63" s="58"/>
+      <c r="D63" s="57"/>
       <c r="E63" s="15" t="s">
         <v>123</v>
       </c>
@@ -3981,14 +3996,14 @@
       <c r="N63" s="21"/>
     </row>
     <row r="64" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="50">
+      <c r="A64" s="49">
         <v>32</v>
       </c>
-      <c r="B64" s="52"/>
+      <c r="B64" s="51"/>
       <c r="C64" s="14">
         <v>140522024</v>
       </c>
-      <c r="D64" s="58"/>
+      <c r="D64" s="57"/>
       <c r="E64" s="15" t="s">
         <v>127</v>
       </c>
@@ -4015,12 +4030,12 @@
       <c r="N64" s="21"/>
     </row>
     <row r="65" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="50"/>
-      <c r="B65" s="52"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="51"/>
       <c r="C65" s="14">
         <v>140522024</v>
       </c>
-      <c r="D65" s="58"/>
+      <c r="D65" s="57"/>
       <c r="E65" s="15" t="s">
         <v>127</v>
       </c>
@@ -4047,14 +4062,14 @@
       <c r="N65" s="21"/>
     </row>
     <row r="66" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="50">
+      <c r="A66" s="49">
         <v>33</v>
       </c>
-      <c r="B66" s="52"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="14">
         <v>140522018</v>
       </c>
-      <c r="D66" s="58"/>
+      <c r="D66" s="57"/>
       <c r="E66" s="15" t="s">
         <v>131</v>
       </c>
@@ -4081,12 +4096,12 @@
       <c r="N66" s="21"/>
     </row>
     <row r="67" spans="1:14" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="50"/>
-      <c r="B67" s="52"/>
+      <c r="A67" s="49"/>
+      <c r="B67" s="51"/>
       <c r="C67" s="14">
         <v>140522018</v>
       </c>
-      <c r="D67" s="58"/>
+      <c r="D67" s="57"/>
       <c r="E67" s="15" t="s">
         <v>131</v>
       </c>
@@ -4113,12 +4128,12 @@
       <c r="N67" s="21"/>
     </row>
     <row r="68" spans="1:14" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="50">
+      <c r="A68" s="49">
         <v>34</v>
       </c>
-      <c r="B68" s="52"/>
+      <c r="B68" s="51"/>
       <c r="C68" s="17"/>
-      <c r="D68" s="58"/>
+      <c r="D68" s="57"/>
       <c r="E68" s="18" t="s">
         <v>134</v>
       </c>
@@ -4145,10 +4160,10 @@
       <c r="N68" s="5"/>
     </row>
     <row r="69" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="50"/>
-      <c r="B69" s="52"/>
+      <c r="A69" s="49"/>
+      <c r="B69" s="51"/>
       <c r="C69" s="17"/>
-      <c r="D69" s="58"/>
+      <c r="D69" s="57"/>
       <c r="E69" s="36" t="s">
         <v>208</v>
       </c>
@@ -4175,14 +4190,14 @@
       <c r="N69" s="5"/>
     </row>
     <row r="70" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="50">
+      <c r="A70" s="49">
         <v>35</v>
       </c>
-      <c r="B70" s="52"/>
+      <c r="B70" s="51"/>
       <c r="C70" s="14">
         <v>140522023</v>
       </c>
-      <c r="D70" s="58"/>
+      <c r="D70" s="57"/>
       <c r="E70" s="15" t="s">
         <v>137</v>
       </c>
@@ -4209,12 +4224,12 @@
       <c r="N70" s="21"/>
     </row>
     <row r="71" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="50"/>
-      <c r="B71" s="52"/>
+      <c r="A71" s="49"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="14">
         <v>140522023</v>
       </c>
-      <c r="D71" s="58"/>
+      <c r="D71" s="57"/>
       <c r="E71" s="15" t="s">
         <v>137</v>
       </c>
@@ -4241,12 +4256,12 @@
       <c r="N71" s="21"/>
     </row>
     <row r="72" spans="1:14" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="50">
+      <c r="A72" s="49">
         <v>36</v>
       </c>
-      <c r="B72" s="52"/>
+      <c r="B72" s="51"/>
       <c r="C72" s="17"/>
-      <c r="D72" s="58"/>
+      <c r="D72" s="57"/>
       <c r="E72" s="18" t="s">
         <v>141</v>
       </c>
@@ -4273,10 +4288,10 @@
       <c r="N72" s="5"/>
     </row>
     <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="50"/>
-      <c r="B73" s="52"/>
+      <c r="A73" s="49"/>
+      <c r="B73" s="51"/>
       <c r="C73" s="22"/>
-      <c r="D73" s="58"/>
+      <c r="D73" s="57"/>
       <c r="E73" s="45" t="s">
         <v>183</v>
       </c>
@@ -4303,14 +4318,14 @@
       <c r="N73" s="5"/>
     </row>
     <row r="74" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="50">
+      <c r="A74" s="49">
         <v>37</v>
       </c>
-      <c r="B74" s="52"/>
+      <c r="B74" s="51"/>
       <c r="C74" s="14">
         <v>140522005</v>
       </c>
-      <c r="D74" s="58"/>
+      <c r="D74" s="57"/>
       <c r="E74" s="15" t="s">
         <v>144</v>
       </c>
@@ -4337,12 +4352,12 @@
       <c r="N74" s="21"/>
     </row>
     <row r="75" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="50"/>
-      <c r="B75" s="52"/>
+      <c r="A75" s="49"/>
+      <c r="B75" s="51"/>
       <c r="C75" s="14">
         <v>140522005</v>
       </c>
-      <c r="D75" s="58"/>
+      <c r="D75" s="57"/>
       <c r="E75" s="15" t="s">
         <v>144</v>
       </c>
@@ -4369,14 +4384,14 @@
       <c r="N75" s="21"/>
     </row>
     <row r="76" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="50">
+      <c r="A76" s="49">
         <v>38</v>
       </c>
-      <c r="B76" s="52"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="14">
         <v>140522006</v>
       </c>
-      <c r="D76" s="58"/>
+      <c r="D76" s="57"/>
       <c r="E76" s="15" t="s">
         <v>148</v>
       </c>
@@ -4403,12 +4418,12 @@
       <c r="N76" s="21"/>
     </row>
     <row r="77" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="50"/>
-      <c r="B77" s="52"/>
+      <c r="A77" s="49"/>
+      <c r="B77" s="51"/>
       <c r="C77" s="14">
         <v>140522006</v>
       </c>
-      <c r="D77" s="58"/>
+      <c r="D77" s="57"/>
       <c r="E77" s="15" t="s">
         <v>148</v>
       </c>
@@ -4435,14 +4450,14 @@
       <c r="N77" s="21"/>
     </row>
     <row r="78" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="50">
+      <c r="A78" s="49">
         <v>39</v>
       </c>
-      <c r="B78" s="52"/>
+      <c r="B78" s="51"/>
       <c r="C78" s="14">
         <v>140522002</v>
       </c>
-      <c r="D78" s="58"/>
+      <c r="D78" s="57"/>
       <c r="E78" s="15" t="s">
         <v>152</v>
       </c>
@@ -4469,12 +4484,12 @@
       <c r="N78" s="21"/>
     </row>
     <row r="79" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="50"/>
-      <c r="B79" s="52"/>
+      <c r="A79" s="49"/>
+      <c r="B79" s="51"/>
       <c r="C79" s="22">
         <v>140522002</v>
       </c>
-      <c r="D79" s="58"/>
+      <c r="D79" s="57"/>
       <c r="E79" s="23" t="s">
         <v>152</v>
       </c>
@@ -4501,12 +4516,12 @@
       <c r="N79" s="31"/>
     </row>
     <row r="80" spans="1:14" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="50">
+      <c r="A80" s="49">
         <v>40</v>
       </c>
-      <c r="B80" s="52"/>
+      <c r="B80" s="51"/>
       <c r="C80" s="17"/>
-      <c r="D80" s="58"/>
+      <c r="D80" s="57"/>
       <c r="E80" s="18" t="s">
         <v>154</v>
       </c>
@@ -4533,10 +4548,10 @@
       <c r="N80" s="5"/>
     </row>
     <row r="81" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="50"/>
-      <c r="B81" s="52"/>
+      <c r="A81" s="49"/>
+      <c r="B81" s="51"/>
       <c r="C81" s="17"/>
-      <c r="D81" s="58"/>
+      <c r="D81" s="57"/>
       <c r="E81" s="36" t="s">
         <v>209</v>
       </c>
@@ -4563,14 +4578,14 @@
       <c r="N81" s="5"/>
     </row>
     <row r="82" spans="1:16384" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="50">
+      <c r="A82" s="49">
         <v>41</v>
       </c>
-      <c r="B82" s="52"/>
+      <c r="B82" s="51"/>
       <c r="C82" s="14">
         <v>140522013</v>
       </c>
-      <c r="D82" s="58"/>
+      <c r="D82" s="57"/>
       <c r="E82" s="15" t="s">
         <v>157</v>
       </c>
@@ -4597,12 +4612,12 @@
       <c r="N82" s="21"/>
     </row>
     <row r="83" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="50"/>
-      <c r="B83" s="52"/>
+      <c r="A83" s="49"/>
+      <c r="B83" s="51"/>
       <c r="C83" s="14">
         <v>140522013</v>
       </c>
-      <c r="D83" s="59"/>
+      <c r="D83" s="58"/>
       <c r="E83" s="15" t="s">
         <v>157</v>
       </c>
@@ -4629,14 +4644,14 @@
       <c r="N83" s="21"/>
     </row>
     <row r="84" spans="1:16384" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="50">
+      <c r="A84" s="49">
         <v>42</v>
       </c>
-      <c r="B84" s="52"/>
+      <c r="B84" s="51"/>
       <c r="C84" s="24">
         <v>140525010</v>
       </c>
-      <c r="D84" s="60" t="s">
+      <c r="D84" s="59" t="s">
         <v>159</v>
       </c>
       <c r="E84" s="25" t="s">
@@ -4660,12 +4675,12 @@
       <c r="M84" s="24"/>
     </row>
     <row r="85" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="50"/>
-      <c r="B85" s="52"/>
+      <c r="A85" s="49"/>
+      <c r="B85" s="51"/>
       <c r="C85" s="14">
         <v>140525010</v>
       </c>
-      <c r="D85" s="56"/>
+      <c r="D85" s="55"/>
       <c r="E85" s="15" t="s">
         <v>160</v>
       </c>
@@ -4692,14 +4707,14 @@
       <c r="N85" s="21"/>
     </row>
     <row r="86" spans="1:16384" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="50">
+      <c r="A86" s="49">
         <v>43</v>
       </c>
-      <c r="B86" s="52"/>
+      <c r="B86" s="51"/>
       <c r="C86" s="14">
         <v>140525008</v>
       </c>
-      <c r="D86" s="56"/>
+      <c r="D86" s="55"/>
       <c r="E86" s="15" t="s">
         <v>163</v>
       </c>
@@ -4726,12 +4741,12 @@
       <c r="N86" s="21"/>
     </row>
     <row r="87" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="50"/>
-      <c r="B87" s="52"/>
+      <c r="A87" s="49"/>
+      <c r="B87" s="51"/>
       <c r="C87" s="14">
         <v>140525008</v>
       </c>
-      <c r="D87" s="56"/>
+      <c r="D87" s="55"/>
       <c r="E87" s="15" t="s">
         <v>163</v>
       </c>
@@ -4758,12 +4773,12 @@
       <c r="N87" s="21"/>
     </row>
     <row r="88" spans="1:16384" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="50">
+      <c r="A88" s="49">
         <v>44</v>
       </c>
-      <c r="B88" s="52"/>
+      <c r="B88" s="51"/>
       <c r="C88" s="24"/>
-      <c r="D88" s="60"/>
+      <c r="D88" s="59"/>
       <c r="E88" s="25" t="s">
         <v>166</v>
       </c>
@@ -21160,10 +21175,10 @@
       <c r="XFD88"/>
     </row>
     <row r="89" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="50"/>
-      <c r="B89" s="52"/>
+      <c r="A89" s="49"/>
+      <c r="B89" s="51"/>
       <c r="C89" s="24"/>
-      <c r="D89" s="60"/>
+      <c r="D89" s="59"/>
       <c r="E89" s="46" t="s">
         <v>211</v>
       </c>
@@ -37560,14 +37575,14 @@
       <c r="XFD89"/>
     </row>
     <row r="90" spans="1:16384" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="50">
+      <c r="A90" s="49">
         <v>45</v>
       </c>
-      <c r="B90" s="52"/>
+      <c r="B90" s="51"/>
       <c r="C90" s="14">
         <v>140525011</v>
       </c>
-      <c r="D90" s="56"/>
+      <c r="D90" s="55"/>
       <c r="E90" s="15" t="s">
         <v>169</v>
       </c>
@@ -37594,12 +37609,12 @@
       <c r="N90" s="21"/>
     </row>
     <row r="91" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="50"/>
-      <c r="B91" s="52"/>
+      <c r="A91" s="49"/>
+      <c r="B91" s="51"/>
       <c r="C91" s="14">
         <v>140525011</v>
       </c>
-      <c r="D91" s="56"/>
+      <c r="D91" s="55"/>
       <c r="E91" s="15" t="s">
         <v>169</v>
       </c>
@@ -37626,14 +37641,14 @@
       <c r="N91" s="21"/>
     </row>
     <row r="92" spans="1:16384" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="50">
+      <c r="A92" s="49">
         <v>46</v>
       </c>
-      <c r="B92" s="52"/>
+      <c r="B92" s="51"/>
       <c r="C92" s="27">
         <v>140524006</v>
       </c>
-      <c r="D92" s="60" t="s">
+      <c r="D92" s="59" t="s">
         <v>172</v>
       </c>
       <c r="E92" s="28" t="s">
@@ -37659,12 +37674,12 @@
       </c>
     </row>
     <row r="93" spans="1:16384" x14ac:dyDescent="0.15">
-      <c r="A93" s="50"/>
-      <c r="B93" s="52"/>
+      <c r="A93" s="49"/>
+      <c r="B93" s="51"/>
       <c r="C93" s="27">
         <v>140524006</v>
       </c>
-      <c r="D93" s="60"/>
+      <c r="D93" s="59"/>
       <c r="E93" s="46" t="s">
         <v>213</v>
       </c>
@@ -37688,14 +37703,14 @@
       </c>
     </row>
     <row r="94" spans="1:16384" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="50">
+      <c r="A94" s="49">
         <v>47</v>
       </c>
-      <c r="B94" s="52"/>
+      <c r="B94" s="51"/>
       <c r="C94" s="27">
         <v>140524003</v>
       </c>
-      <c r="D94" s="60"/>
+      <c r="D94" s="59"/>
       <c r="E94" s="28" t="s">
         <v>176</v>
       </c>
@@ -37719,12 +37734,12 @@
       </c>
     </row>
     <row r="95" spans="1:16384" x14ac:dyDescent="0.15">
-      <c r="A95" s="50"/>
-      <c r="B95" s="53"/>
+      <c r="A95" s="49"/>
+      <c r="B95" s="52"/>
       <c r="C95" s="27">
         <v>140524003</v>
       </c>
-      <c r="D95" s="60"/>
+      <c r="D95" s="59"/>
       <c r="E95" s="46" t="s">
         <v>215</v>
       </c>
@@ -37756,43 +37771,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="53">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
     <mergeCell ref="A92:A93"/>
     <mergeCell ref="A94:A95"/>
     <mergeCell ref="B2:B95"/>
@@ -37809,6 +37787,43 @@
     <mergeCell ref="A72:A73"/>
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -37855,10 +37870,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I34"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A26" activeCellId="1" sqref="A29:XFD29 A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -37891,7 +37909,7 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="61" t="s">
         <v>233</v>
       </c>
       <c r="C3" s="39" t="str">
@@ -37904,7 +37922,7 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="65"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="39" t="str">
         <f>"jdbc:mysql://"&amp;B2&amp;":3306/ddgl?socketTimeout=60000&amp;useUnicode=true&amp;amp;characterEncoding=UTF-8"</f>
         <v>jdbc:mysql://11.104.134.39:3306/ddgl?socketTimeout=60000&amp;useUnicode=true&amp;amp;characterEncoding=UTF-8</v>
@@ -37922,7 +37940,7 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="65"/>
+      <c r="B5" s="62"/>
       <c r="G5" t="str">
         <f>"lddb_省到"&amp;B14&amp;B6&amp;"基础表"</f>
         <v>lddb_省到陵川县南营河基础表</v>
@@ -38052,7 +38070,7 @@
       <c r="D16" s="37"/>
       <c r="H16" s="35"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D17" s="37"/>
       <c r="G17" t="s">
         <v>223</v>
@@ -38061,7 +38079,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="35" t="str">
         <f>B2</f>
         <v>11.104.134.39</v>
@@ -38078,7 +38096,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C19" t="str">
         <f>B14&amp;B6&amp;"到"&amp;B14</f>
         <v>陵川县南营河到陵川县</v>
@@ -38091,7 +38109,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="D20" s="37"/>
       <c r="G20" t="s">
         <v>229</v>
@@ -38100,7 +38118,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C21" t="str">
         <f>B14&amp;"到"&amp;B6&amp;"业务表.ddgl"</f>
         <v>陵川县到南营河业务表.ddgl</v>
@@ -38109,13 +38127,13 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C22" t="str">
         <f>B14&amp;"到"&amp;B6&amp;"支撑表.ddgl"</f>
         <v>陵川县到南营河支撑表.ddgl</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" t="str">
         <f>B6&amp;"到"&amp;B14&amp;"业务表.ddgl"</f>
         <v>南营河到陵川县业务表.ddgl</v>
@@ -38124,37 +38142,16 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="43"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
     </row>
-    <row r="26" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="35"/>
-      <c r="B26" s="62" t="str">
-        <f>"insert into ddgl_province.ddgl_fjbs_relation_neu 
-select id, code, '"&amp;B18&amp;"', name, is_uplo, is_uplo_rent
-, last_uplo_date, SYSDATE, 'Y', city_name, city_code
-, xian_name, xian_code, mine_name, mine_code, decode(ip,null,null,'原IP：'||ip||'（赵）'||'新IP："&amp;B18&amp;"'||'（'||to_date(sysdate,'yymmdd')||'neu）')remark 
-from ddgl_province.ddgl_fjbs_relation where name like '%"&amp;B6&amp;"%';"</f>
-        <v>insert into ddgl_province.ddgl_fjbs_relation_neu 
-select id, code, '11.104.134.39', name, is_uplo, is_uplo_rent
-, last_uplo_date, SYSDATE, 'Y', city_name, city_code
-, xian_name, xian_code, mine_name, mine_code, decode(ip,null,null,'原IP：'||ip||'（赵）'||'新IP：11.104.134.39'||'（'||to_date(sysdate,'yymmdd')||'neu）')remark 
-from ddgl_province.ddgl_fjbs_relation where name like '%南营河%';</v>
-      </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D26" s="37"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D27" s="37"/>
-    </row>
-    <row r="28" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="63" t="str">
+    <row r="27" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="63" t="str">
         <f>"update ddgl_province.ddgl_fjbs_relation
 set is_bs = 'Y',bs_date = sysdate,ip = '"&amp;B2&amp;"'
 where code = '"&amp;B7&amp;"'"</f>
@@ -38162,31 +38159,11 @@
 set is_bs = 'Y',bs_date = sysdate,ip = '11.104.134.39'
 where code = '140524004'</v>
       </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="37"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="37"/>
     </row>
-    <row r="29" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="62" t="str">
-        <f>"insert into lddb.lddb_dw_ip_neu
-select id, code, '"&amp;H2&amp;"', name, is_uplo, is_uplo_rent
-, last_uplo_date, SYSDATE, 'Y', city_name, city_code
-, xian_name, xian_code, mine_name, mine_code, decode(ip,null,null,'原IP：'||ip||'（赵）'||'新IP："&amp;H2&amp;"'||'（'||to_date(sysdate,'yymmdd')||'neu）')remark 
-from lddb.lddb_dw_to_ip where name like '%"&amp;B6&amp;"%';"</f>
-        <v>insert into lddb.lddb_dw_ip_neu
-select id, code, '11.104.134.40', name, is_uplo, is_uplo_rent
-, last_uplo_date, SYSDATE, 'Y', city_name, city_code
-, xian_name, xian_code, mine_name, mine_code, decode(ip,null,null,'原IP：'||ip||'（赵）'||'新IP：11.104.134.40'||'（'||to_date(sysdate,'yymmdd')||'neu）')remark 
-from lddb.lddb_dw_to_ip where name like '%南营河%';</v>
-      </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-    </row>
-    <row r="31" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="63" t="str">
+    <row r="29" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="63" t="str">
         <f>"update lddb.lddb_dw_to_ip
 set is_bs = 'Y',bs_date = sysdate,ip = '"&amp;H2&amp;"'
 where code = '"&amp;B7&amp;"'"</f>
@@ -38194,20 +38171,20 @@
 set is_bs = 'Y',bs_date = sysdate,ip = '11.104.134.40'
 where code = '140524004'</v>
       </c>
-      <c r="C31" s="63"/>
+      <c r="C29" s="63"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" t="str">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" t="str">
         <f>"select * from up_org_user r where r.org_id in (select id from up_org_unit u where u.code = '"&amp;B12&amp;"')"</f>
         <v>select * from up_org_user r where r.org_id in (select id from up_org_unit u where u.code = '140524000')</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="61" t="str">
+    <row r="32" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="60" t="str">
         <f>"select r.*,r.rowid from lddb.lddb_dw_to_ip r
 where r.city_name like '%"&amp;B11&amp;"%' and r.is_bs = 'Y'
   and r.code is not null"</f>
@@ -38215,16 +38192,348 @@
 where r.city_name like '%晋城%' and r.is_bs = 'Y'
   and r.code is not null</v>
       </c>
-      <c r="C34" s="61"/>
+      <c r="C32" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B34:C34"/>
+  <mergeCells count="4">
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="52.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="3.125" customWidth="1"/>
+    <col min="6" max="6" width="3" customWidth="1"/>
+    <col min="7" max="7" width="25.25" customWidth="1"/>
+    <col min="8" max="8" width="68.375" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B2" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="39" t="str">
+        <f>B14&amp;B6&amp;"_"&amp;B2</f>
+        <v>高平大通_11.104.88.18</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>"lddb_"&amp;B14&amp;B6&amp;"_"&amp;H2</f>
+        <v>lddb_高平大通_11.104.88.17</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="61" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="39" t="str">
+        <f>B14&amp;B6&amp;"_"&amp;B2&amp;".ddgl"</f>
+        <v>高平大通_11.104.88.18.ddgl</v>
+      </c>
+      <c r="G3" s="39" t="str">
+        <f>"jdbc:mysql://"&amp;H2&amp;":3306/lddb?socketTimeout=60000&amp;useUnicode=true&amp;amp;characterEncoding=UTF-8"</f>
+        <v>jdbc:mysql://11.104.88.17:3306/lddb?socketTimeout=60000&amp;useUnicode=true&amp;amp;characterEncoding=UTF-8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="62"/>
+      <c r="C4" s="39" t="str">
+        <f>"jdbc:mysql://"&amp;B2&amp;":3306/ddgl?socketTimeout=60000&amp;useUnicode=true&amp;amp;characterEncoding=UTF-8"</f>
+        <v>jdbc:mysql://11.104.88.18:3306/ddgl?socketTimeout=60000&amp;useUnicode=true&amp;amp;characterEncoding=UTF-8</v>
+      </c>
+      <c r="G4" t="str">
+        <f>"lddb_"&amp;B14&amp;"到"&amp;B14&amp;B6&amp;"业务表"</f>
+        <v>lddb_高平到高平大通业务表</v>
+      </c>
+      <c r="H4" s="35" t="str">
+        <f>"s_add_"&amp;B14&amp;B6&amp;"_"&amp;H2&amp;"_lddb_ssxjxx、"&amp;B14&amp;"到"&amp;B14&amp;B6</f>
+        <v>s_add_高平大通_11.104.88.17_lddb_ssxjxx、高平到高平大通</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="62"/>
+      <c r="G5" t="str">
+        <f>"lddb_省到"&amp;B14&amp;B6&amp;"基础表"</f>
+        <v>lddb_省到高平大通基础表</v>
+      </c>
+      <c r="H5" s="35" t="str">
+        <f>"s_add_"&amp;B14&amp;B6&amp;"_"&amp;H2&amp;"_lddb_bcxx、s_add_"&amp;B14&amp;B6&amp;"_"&amp;H2&amp;"_lddb_jxzyry"</f>
+        <v>s_add_高平大通_11.104.88.17_lddb_bcxx、s_add_高平大通_11.104.88.17_lddb_jxzyry</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="G6" t="str">
+        <f>"lddb_省到"&amp;B14&amp;B6&amp;"支撑表"</f>
+        <v>lddb_省到高平大通支撑表</v>
+      </c>
+      <c r="H6" s="35" t="str">
+        <f>"s_add_"&amp;B14&amp;B6&amp;"_"&amp;H2&amp;"_lddb"</f>
+        <v>s_add_高平大通_11.104.88.17_lddb</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="43">
+        <v>140581021</v>
+      </c>
+      <c r="C7" s="40" t="str">
+        <f>B14&amp;B6&amp;"_"&amp;B2&amp;".ddgl"</f>
+        <v>高平大通_11.104.88.18.ddgl</v>
+      </c>
+      <c r="G7" t="str">
+        <f>"lddb_"&amp;B14&amp;B6&amp;"到"&amp;B14&amp;"业务表"</f>
+        <v>lddb_高平大通到高平业务表</v>
+      </c>
+      <c r="H7" s="35" t="str">
+        <f>B14&amp;B6&amp;"到"&amp;B14</f>
+        <v>高平大通到高平</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C8" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="35" t="str">
+        <f>"select u.name from up_org_name u where u.name like '%"&amp;B6&amp;"%'"</f>
+        <v>select u.name from up_org_name u where u.name like '%大通%'</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="C9" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="35" t="str">
+        <f>"select u.id,u.code,u.MINE_NAME_F,u.name,u.DISTRICT,u.DISTRICT_NAME,u.city,u.city_name from view_full_region u where u.name like '%"&amp;B6&amp;"%'"</f>
+        <v>select u.id,u.code,u.MINE_NAME_F,u.name,u.DISTRICT,u.DISTRICT_NAME,u.city,u.city_name from view_full_region u where u.name like '%大通%'</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C10" s="42" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="40"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>140581000</v>
+      </c>
+      <c r="C12" s="40" t="str">
+        <f>B6&amp;"_"&amp;B2&amp;".ddgl_infotip"</f>
+        <v>大通_11.104.88.18.ddgl_infotip</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D13" s="37"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" t="str">
+        <f>B14&amp;"到"&amp;B14&amp;B6</f>
+        <v>高平到高平大通</v>
+      </c>
+      <c r="D14" s="37"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C15" t="str">
+        <f>B14&amp;B6&amp;"到"&amp;B14</f>
+        <v>高平大通到高平</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="G15" t="str">
+        <f>"MINE_CODE = '"&amp;B7&amp;"'"</f>
+        <v>MINE_CODE = '140581021'</v>
+      </c>
+      <c r="H15" s="35"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="43">
+        <v>467</v>
+      </c>
+      <c r="C16" s="35" t="str">
+        <f>"COMPANY_CODE='"&amp;B16&amp;"'"</f>
+        <v>COMPANY_CODE='467'</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="H16" s="35"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D17" s="37"/>
+      <c r="G17" t="s">
+        <v>223</v>
+      </c>
+      <c r="H17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="35" t="str">
+        <f>B2</f>
+        <v>11.104.88.18</v>
+      </c>
+      <c r="C18" t="str">
+        <f>B14&amp;"到"&amp;B14&amp;B6</f>
+        <v>高平到高平大通</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="G18" t="s">
+        <v>225</v>
+      </c>
+      <c r="H18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C19" t="str">
+        <f>B14&amp;B6&amp;"到"&amp;B14</f>
+        <v>高平大通到高平</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="G19" t="s">
+        <v>227</v>
+      </c>
+      <c r="H19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D20" s="37"/>
+      <c r="G20" t="s">
+        <v>229</v>
+      </c>
+      <c r="H20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C21" t="str">
+        <f>B14&amp;"到"&amp;B6&amp;"业务表.ddgl"</f>
+        <v>高平到大通业务表.ddgl</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C22" t="str">
+        <f>B14&amp;"到"&amp;B6&amp;"支撑表.ddgl"</f>
+        <v>高平到大通支撑表.ddgl</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" t="str">
+        <f>B6&amp;"到"&amp;B14&amp;"业务表.ddgl"</f>
+        <v>大通到高平业务表.ddgl</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="43"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D26" s="37"/>
+    </row>
+    <row r="27" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="63" t="str">
+        <f>"update ddgl_province.ddgl_fjbs_relation
+set is_bs = 'Y',bs_date = sysdate,ip = '"&amp;B2&amp;"'
+where code = '"&amp;B7&amp;"'"</f>
+        <v>update ddgl_province.ddgl_fjbs_relation
+set is_bs = 'Y',bs_date = sysdate,ip = '11.104.88.18'
+where code = '140581021'</v>
+      </c>
+      <c r="C27" s="63"/>
+      <c r="D27" s="37"/>
+    </row>
+    <row r="29" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="63" t="str">
+        <f>"update lddb.lddb_dw_to_ip
+set is_bs = 'Y',bs_date = sysdate,ip = '"&amp;H2&amp;"'
+where code = '"&amp;B7&amp;"'"</f>
+        <v>update lddb.lddb_dw_to_ip
+set is_bs = 'Y',bs_date = sysdate,ip = '11.104.88.17'
+where code = '140581021'</v>
+      </c>
+      <c r="C29" s="63"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" t="str">
+        <f>"select * from up_org_user r where r.org_id in (select id from up_org_unit u where u.code = '"&amp;B12&amp;"')"</f>
+        <v>select * from up_org_user r where r.org_id in (select id from up_org_unit u where u.code = '140581000')</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="60" t="str">
+        <f>"select r.*,r.rowid from lddb.lddb_dw_to_ip r
+where r.city_name like '%"&amp;B11&amp;"%' and r.is_bs = 'Y'
+  and r.code is not null"</f>
+        <v>select r.*,r.rowid from lddb.lddb_dw_to_ip r
+where r.city_name like '%晋城%' and r.is_bs = 'Y'
+  and r.code is not null</v>
+      </c>
+      <c r="C32" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fjbs/部署步骤 - 晋城.xlsx
+++ b/fjbs/部署步骤 - 晋城.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cut\miao\fjbs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="7950" tabRatio="528" activeTab="2"/>
   </bookViews>
@@ -19,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">远程!$1:$95</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="247">
   <si>
     <t>序号</t>
   </si>
@@ -1168,14 +1163,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>11.104.88.18</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.104.88.17</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>高平</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1187,12 +1174,44 @@
     <t>山西煤炭运销集团大通煤业有限公司</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>11.104.88.18</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.104.88.17</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lddb_高平到高平大通业务表</t>
+  </si>
+  <si>
+    <t>s_add_高平大通_11.104.88.17_lddb_ssxjxx、高平到高平大通</t>
+  </si>
+  <si>
+    <t>lddb_省到高平大通基础表</t>
+  </si>
+  <si>
+    <t>s_add_高平大通_11.104.88.17_lddb_bcxx、s_add_高平大通_11.104.88.17_lddb_jxzyry</t>
+  </si>
+  <si>
+    <t>lddb_省到高平大通支撑表</t>
+  </si>
+  <si>
+    <t>s_add_高平大通_11.104.88.17_lddb</t>
+  </si>
+  <si>
+    <t>lddb_高平大通到高平业务表</t>
+  </si>
+  <si>
+    <t>高平大通到高平</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1859,7 +1878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:XFD95"/>
   <sheetViews>
@@ -1867,7 +1886,7 @@
       <selection activeCell="E93" sqref="E93:E95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" customWidth="1"/>
@@ -1885,7 +1904,7 @@
     <col min="14" max="14" width="6.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1929,7 +1948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A2" s="49">
         <v>1</v>
       </c>
@@ -1969,7 +1988,7 @@
       <c r="M2" s="22"/>
       <c r="N2" s="21"/>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" s="3" customFormat="1">
       <c r="A3" s="49"/>
       <c r="B3" s="51"/>
       <c r="C3" s="22">
@@ -2001,7 +2020,7 @@
       <c r="M3" s="22"/>
       <c r="N3" s="21"/>
     </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A4" s="49">
         <v>2</v>
       </c>
@@ -2037,7 +2056,7 @@
       <c r="M4" s="22"/>
       <c r="N4" s="21"/>
     </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" s="3" customFormat="1">
       <c r="A5" s="49"/>
       <c r="B5" s="51"/>
       <c r="C5" s="22">
@@ -2069,7 +2088,7 @@
       <c r="M5" s="22"/>
       <c r="N5" s="21"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A6" s="49">
         <v>3</v>
       </c>
@@ -2105,7 +2124,7 @@
       <c r="M6" s="22"/>
       <c r="N6" s="21"/>
     </row>
-    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" s="3" customFormat="1">
       <c r="A7" s="49"/>
       <c r="B7" s="51"/>
       <c r="C7" s="22">
@@ -2137,7 +2156,7 @@
       <c r="M7" s="22"/>
       <c r="N7" s="21"/>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A8" s="49">
         <v>4</v>
       </c>
@@ -2173,7 +2192,7 @@
       <c r="M8" s="22"/>
       <c r="N8" s="21"/>
     </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" s="3" customFormat="1">
       <c r="A9" s="49"/>
       <c r="B9" s="51"/>
       <c r="C9" s="22">
@@ -2205,7 +2224,7 @@
       <c r="M9" s="22"/>
       <c r="N9" s="21"/>
     </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A10" s="49">
         <v>5</v>
       </c>
@@ -2241,7 +2260,7 @@
       <c r="M10" s="22"/>
       <c r="N10" s="21"/>
     </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" s="3" customFormat="1">
       <c r="A11" s="49"/>
       <c r="B11" s="51"/>
       <c r="C11" s="22">
@@ -2273,7 +2292,7 @@
       <c r="M11" s="22"/>
       <c r="N11" s="21"/>
     </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A12" s="49">
         <v>6</v>
       </c>
@@ -2309,7 +2328,7 @@
       <c r="M12" s="22"/>
       <c r="N12" s="21"/>
     </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" s="3" customFormat="1">
       <c r="A13" s="49"/>
       <c r="B13" s="51"/>
       <c r="C13" s="22">
@@ -2341,7 +2360,7 @@
       <c r="M13" s="22"/>
       <c r="N13" s="21"/>
     </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A14" s="49">
         <v>7</v>
       </c>
@@ -2377,7 +2396,7 @@
       <c r="M14" s="22"/>
       <c r="N14" s="21"/>
     </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" s="3" customFormat="1">
       <c r="A15" s="49"/>
       <c r="B15" s="51"/>
       <c r="C15" s="22">
@@ -2409,7 +2428,7 @@
       <c r="M15" s="22"/>
       <c r="N15" s="21"/>
     </row>
-    <row r="16" spans="1:14" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" s="4" customFormat="1" hidden="1">
       <c r="A16" s="49">
         <v>8</v>
       </c>
@@ -2445,7 +2464,7 @@
       <c r="M16" s="22"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" s="4" customFormat="1">
       <c r="A17" s="49"/>
       <c r="B17" s="51"/>
       <c r="C17" s="22">
@@ -2477,7 +2496,7 @@
       <c r="M17" s="22"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A18" s="49">
         <v>9</v>
       </c>
@@ -2515,7 +2534,7 @@
       <c r="M18" s="14"/>
       <c r="N18" s="21"/>
     </row>
-    <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" s="3" customFormat="1">
       <c r="A19" s="49"/>
       <c r="B19" s="51"/>
       <c r="C19" s="14">
@@ -2547,7 +2566,7 @@
       <c r="M19" s="14"/>
       <c r="N19" s="21"/>
     </row>
-    <row r="20" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A20" s="49">
         <v>10</v>
       </c>
@@ -2583,7 +2602,7 @@
       <c r="M20" s="14"/>
       <c r="N20" s="21"/>
     </row>
-    <row r="21" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" s="3" customFormat="1">
       <c r="A21" s="49"/>
       <c r="B21" s="51"/>
       <c r="C21" s="14">
@@ -2615,7 +2634,7 @@
       <c r="M21" s="14"/>
       <c r="N21" s="21"/>
     </row>
-    <row r="22" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A22" s="49">
         <v>11</v>
       </c>
@@ -2651,7 +2670,7 @@
       <c r="M22" s="14"/>
       <c r="N22" s="21"/>
     </row>
-    <row r="23" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" s="3" customFormat="1">
       <c r="A23" s="49"/>
       <c r="B23" s="51"/>
       <c r="C23" s="14">
@@ -2683,7 +2702,7 @@
       <c r="M23" s="14"/>
       <c r="N23" s="21"/>
     </row>
-    <row r="24" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A24" s="49">
         <v>12</v>
       </c>
@@ -2719,7 +2738,7 @@
       <c r="M24" s="14"/>
       <c r="N24" s="21"/>
     </row>
-    <row r="25" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" s="3" customFormat="1">
       <c r="A25" s="49"/>
       <c r="B25" s="51"/>
       <c r="C25" s="14">
@@ -2751,7 +2770,7 @@
       <c r="M25" s="14"/>
       <c r="N25" s="21"/>
     </row>
-    <row r="26" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A26" s="49">
         <v>13</v>
       </c>
@@ -2787,7 +2806,7 @@
       <c r="M26" s="14"/>
       <c r="N26" s="21"/>
     </row>
-    <row r="27" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" s="3" customFormat="1">
       <c r="A27" s="49"/>
       <c r="B27" s="51"/>
       <c r="C27" s="14">
@@ -2819,7 +2838,7 @@
       <c r="M27" s="14"/>
       <c r="N27" s="21"/>
     </row>
-    <row r="28" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A28" s="49">
         <v>14</v>
       </c>
@@ -2855,7 +2874,7 @@
       <c r="M28" s="14"/>
       <c r="N28" s="21"/>
     </row>
-    <row r="29" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" s="3" customFormat="1">
       <c r="A29" s="49"/>
       <c r="B29" s="51"/>
       <c r="C29" s="14">
@@ -2887,7 +2906,7 @@
       <c r="M29" s="14"/>
       <c r="N29" s="21"/>
     </row>
-    <row r="30" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A30" s="49">
         <v>15</v>
       </c>
@@ -2921,7 +2940,7 @@
       <c r="M30" s="14"/>
       <c r="N30" s="21"/>
     </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" s="3" customFormat="1">
       <c r="A31" s="49"/>
       <c r="B31" s="51"/>
       <c r="C31" s="14">
@@ -2953,7 +2972,7 @@
       <c r="M31" s="14"/>
       <c r="N31" s="21"/>
     </row>
-    <row r="32" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A32" s="49">
         <v>16</v>
       </c>
@@ -2989,7 +3008,7 @@
       <c r="M32" s="14"/>
       <c r="N32" s="21"/>
     </row>
-    <row r="33" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" s="3" customFormat="1">
       <c r="A33" s="49"/>
       <c r="B33" s="51"/>
       <c r="C33" s="14">
@@ -3021,7 +3040,7 @@
       <c r="M33" s="14"/>
       <c r="N33" s="21"/>
     </row>
-    <row r="34" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A34" s="49">
         <v>17</v>
       </c>
@@ -3055,7 +3074,7 @@
       <c r="M34" s="14"/>
       <c r="N34" s="21"/>
     </row>
-    <row r="35" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" s="3" customFormat="1">
       <c r="A35" s="49"/>
       <c r="B35" s="51"/>
       <c r="C35" s="14">
@@ -3087,7 +3106,7 @@
       <c r="M35" s="14"/>
       <c r="N35" s="21"/>
     </row>
-    <row r="36" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A36" s="49">
         <v>18</v>
       </c>
@@ -3121,7 +3140,7 @@
       <c r="M36" s="14"/>
       <c r="N36" s="21"/>
     </row>
-    <row r="37" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" s="3" customFormat="1">
       <c r="A37" s="49"/>
       <c r="B37" s="51"/>
       <c r="C37" s="14">
@@ -3153,7 +3172,7 @@
       <c r="M37" s="14"/>
       <c r="N37" s="21"/>
     </row>
-    <row r="38" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A38" s="49">
         <v>19</v>
       </c>
@@ -3187,7 +3206,7 @@
       <c r="M38" s="14"/>
       <c r="N38" s="21"/>
     </row>
-    <row r="39" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" s="3" customFormat="1">
       <c r="A39" s="49"/>
       <c r="B39" s="51"/>
       <c r="C39" s="14">
@@ -3219,7 +3238,7 @@
       <c r="M39" s="14"/>
       <c r="N39" s="21"/>
     </row>
-    <row r="40" spans="1:14" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" s="5" customFormat="1" hidden="1">
       <c r="A40" s="49">
         <v>20</v>
       </c>
@@ -3250,7 +3269,7 @@
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>
     </row>
-    <row r="41" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" s="5" customFormat="1">
       <c r="A41" s="49"/>
       <c r="B41" s="51"/>
       <c r="C41" s="17"/>
@@ -3279,7 +3298,7 @@
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
     </row>
-    <row r="42" spans="1:14" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" s="5" customFormat="1" hidden="1">
       <c r="A42" s="49">
         <v>21</v>
       </c>
@@ -3310,7 +3329,7 @@
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
     </row>
-    <row r="43" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" s="5" customFormat="1">
       <c r="A43" s="49"/>
       <c r="B43" s="51"/>
       <c r="C43" s="17"/>
@@ -3339,7 +3358,7 @@
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>
     </row>
-    <row r="44" spans="1:14" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" s="5" customFormat="1" hidden="1">
       <c r="A44" s="49">
         <v>22</v>
       </c>
@@ -3372,7 +3391,7 @@
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>
     </row>
-    <row r="45" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" s="5" customFormat="1">
       <c r="A45" s="49"/>
       <c r="B45" s="51"/>
       <c r="C45" s="17">
@@ -3403,7 +3422,7 @@
       <c r="L45" s="17"/>
       <c r="M45" s="17"/>
     </row>
-    <row r="46" spans="1:14" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" s="5" customFormat="1" hidden="1">
       <c r="A46" s="49">
         <v>23</v>
       </c>
@@ -3436,7 +3455,7 @@
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
     </row>
-    <row r="47" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" s="5" customFormat="1">
       <c r="A47" s="49"/>
       <c r="B47" s="51"/>
       <c r="C47" s="22">
@@ -3467,7 +3486,7 @@
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
     </row>
-    <row r="48" spans="1:14" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" s="5" customFormat="1" hidden="1">
       <c r="A48" s="49">
         <v>24</v>
       </c>
@@ -3498,7 +3517,7 @@
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
     </row>
-    <row r="49" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" s="5" customFormat="1">
       <c r="A49" s="49"/>
       <c r="B49" s="51"/>
       <c r="C49" s="17"/>
@@ -3527,7 +3546,7 @@
       <c r="L49" s="17"/>
       <c r="M49" s="17"/>
     </row>
-    <row r="50" spans="1:14" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" s="5" customFormat="1" hidden="1">
       <c r="A50" s="49">
         <v>25</v>
       </c>
@@ -3560,7 +3579,7 @@
       <c r="L50" s="17"/>
       <c r="M50" s="17"/>
     </row>
-    <row r="51" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" s="5" customFormat="1">
       <c r="A51" s="49"/>
       <c r="B51" s="51"/>
       <c r="C51" s="17">
@@ -3591,7 +3610,7 @@
       <c r="L51" s="17"/>
       <c r="M51" s="17"/>
     </row>
-    <row r="52" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A52" s="49">
         <v>26</v>
       </c>
@@ -3625,7 +3644,7 @@
       <c r="M52" s="14"/>
       <c r="N52" s="21"/>
     </row>
-    <row r="53" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" s="3" customFormat="1">
       <c r="A53" s="49"/>
       <c r="B53" s="51"/>
       <c r="C53" s="14">
@@ -3657,7 +3676,7 @@
       <c r="M53" s="14"/>
       <c r="N53" s="21"/>
     </row>
-    <row r="54" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A54" s="49">
         <v>27</v>
       </c>
@@ -3695,7 +3714,7 @@
       <c r="M54" s="14"/>
       <c r="N54" s="21"/>
     </row>
-    <row r="55" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" s="3" customFormat="1">
       <c r="A55" s="49"/>
       <c r="B55" s="51"/>
       <c r="C55" s="14">
@@ -3727,7 +3746,7 @@
       <c r="M55" s="14"/>
       <c r="N55" s="21"/>
     </row>
-    <row r="56" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A56" s="49">
         <v>28</v>
       </c>
@@ -3761,7 +3780,7 @@
       <c r="M56" s="14"/>
       <c r="N56" s="21"/>
     </row>
-    <row r="57" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" s="3" customFormat="1">
       <c r="A57" s="49"/>
       <c r="B57" s="51"/>
       <c r="C57" s="14">
@@ -3793,7 +3812,7 @@
       <c r="M57" s="14"/>
       <c r="N57" s="21"/>
     </row>
-    <row r="58" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A58" s="49">
         <v>29</v>
       </c>
@@ -3827,7 +3846,7 @@
       <c r="M58" s="14"/>
       <c r="N58" s="21"/>
     </row>
-    <row r="59" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" s="3" customFormat="1">
       <c r="A59" s="49"/>
       <c r="B59" s="51"/>
       <c r="C59" s="14">
@@ -3859,7 +3878,7 @@
       <c r="M59" s="14"/>
       <c r="N59" s="21"/>
     </row>
-    <row r="60" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A60" s="49">
         <v>30</v>
       </c>
@@ -3895,7 +3914,7 @@
       <c r="M60" s="14"/>
       <c r="N60" s="21"/>
     </row>
-    <row r="61" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" s="3" customFormat="1">
       <c r="A61" s="49"/>
       <c r="B61" s="51"/>
       <c r="C61" s="14">
@@ -3927,7 +3946,7 @@
       <c r="M61" s="14"/>
       <c r="N61" s="21"/>
     </row>
-    <row r="62" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A62" s="49">
         <v>31</v>
       </c>
@@ -3963,7 +3982,7 @@
       <c r="M62" s="14"/>
       <c r="N62" s="21"/>
     </row>
-    <row r="63" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" s="3" customFormat="1">
       <c r="A63" s="49"/>
       <c r="B63" s="51"/>
       <c r="C63" s="14">
@@ -3995,7 +4014,7 @@
       <c r="M63" s="14"/>
       <c r="N63" s="21"/>
     </row>
-    <row r="64" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A64" s="49">
         <v>32</v>
       </c>
@@ -4029,7 +4048,7 @@
       <c r="M64" s="14"/>
       <c r="N64" s="21"/>
     </row>
-    <row r="65" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:14" s="3" customFormat="1">
       <c r="A65" s="49"/>
       <c r="B65" s="51"/>
       <c r="C65" s="14">
@@ -4061,7 +4080,7 @@
       <c r="M65" s="14"/>
       <c r="N65" s="21"/>
     </row>
-    <row r="66" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A66" s="49">
         <v>33</v>
       </c>
@@ -4095,7 +4114,7 @@
       <c r="M66" s="14"/>
       <c r="N66" s="21"/>
     </row>
-    <row r="67" spans="1:14" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:14" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A67" s="49"/>
       <c r="B67" s="51"/>
       <c r="C67" s="14">
@@ -4127,7 +4146,7 @@
       <c r="M67" s="14"/>
       <c r="N67" s="21"/>
     </row>
-    <row r="68" spans="1:14" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:14" s="4" customFormat="1" hidden="1">
       <c r="A68" s="49">
         <v>34</v>
       </c>
@@ -4159,7 +4178,7 @@
       <c r="M68" s="17"/>
       <c r="N68" s="5"/>
     </row>
-    <row r="69" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:14" s="4" customFormat="1">
       <c r="A69" s="49"/>
       <c r="B69" s="51"/>
       <c r="C69" s="17"/>
@@ -4189,7 +4208,7 @@
       <c r="M69" s="17"/>
       <c r="N69" s="5"/>
     </row>
-    <row r="70" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A70" s="49">
         <v>35</v>
       </c>
@@ -4223,7 +4242,7 @@
       <c r="M70" s="14"/>
       <c r="N70" s="21"/>
     </row>
-    <row r="71" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14" s="3" customFormat="1">
       <c r="A71" s="49"/>
       <c r="B71" s="51"/>
       <c r="C71" s="14">
@@ -4255,7 +4274,7 @@
       <c r="M71" s="14"/>
       <c r="N71" s="21"/>
     </row>
-    <row r="72" spans="1:14" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:14" s="4" customFormat="1" hidden="1">
       <c r="A72" s="49">
         <v>36</v>
       </c>
@@ -4287,7 +4306,7 @@
       <c r="M72" s="17"/>
       <c r="N72" s="5"/>
     </row>
-    <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:14" s="4" customFormat="1">
       <c r="A73" s="49"/>
       <c r="B73" s="51"/>
       <c r="C73" s="22"/>
@@ -4317,7 +4336,7 @@
       <c r="M73" s="22"/>
       <c r="N73" s="5"/>
     </row>
-    <row r="74" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A74" s="49">
         <v>37</v>
       </c>
@@ -4351,7 +4370,7 @@
       <c r="M74" s="14"/>
       <c r="N74" s="21"/>
     </row>
-    <row r="75" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:14" s="3" customFormat="1">
       <c r="A75" s="49"/>
       <c r="B75" s="51"/>
       <c r="C75" s="14">
@@ -4383,7 +4402,7 @@
       <c r="M75" s="14"/>
       <c r="N75" s="21"/>
     </row>
-    <row r="76" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A76" s="49">
         <v>38</v>
       </c>
@@ -4417,7 +4436,7 @@
       <c r="M76" s="14"/>
       <c r="N76" s="21"/>
     </row>
-    <row r="77" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:14" s="3" customFormat="1">
       <c r="A77" s="49"/>
       <c r="B77" s="51"/>
       <c r="C77" s="14">
@@ -4449,7 +4468,7 @@
       <c r="M77" s="14"/>
       <c r="N77" s="21"/>
     </row>
-    <row r="78" spans="1:14" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:14" s="3" customFormat="1" hidden="1">
       <c r="A78" s="49">
         <v>39</v>
       </c>
@@ -4483,7 +4502,7 @@
       <c r="M78" s="14"/>
       <c r="N78" s="21"/>
     </row>
-    <row r="79" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:14" s="6" customFormat="1">
       <c r="A79" s="49"/>
       <c r="B79" s="51"/>
       <c r="C79" s="22">
@@ -4515,7 +4534,7 @@
       <c r="M79" s="22"/>
       <c r="N79" s="31"/>
     </row>
-    <row r="80" spans="1:14" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:14" s="4" customFormat="1" hidden="1">
       <c r="A80" s="49">
         <v>40</v>
       </c>
@@ -4547,7 +4566,7 @@
       <c r="M80" s="17"/>
       <c r="N80" s="5"/>
     </row>
-    <row r="81" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:16384" s="4" customFormat="1">
       <c r="A81" s="49"/>
       <c r="B81" s="51"/>
       <c r="C81" s="17"/>
@@ -4577,7 +4596,7 @@
       <c r="M81" s="17"/>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" spans="1:16384" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:16384" s="3" customFormat="1" hidden="1">
       <c r="A82" s="49">
         <v>41</v>
       </c>
@@ -4611,7 +4630,7 @@
       <c r="M82" s="14"/>
       <c r="N82" s="21"/>
     </row>
-    <row r="83" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:16384" s="3" customFormat="1">
       <c r="A83" s="49"/>
       <c r="B83" s="51"/>
       <c r="C83" s="14">
@@ -4643,7 +4662,7 @@
       <c r="M83" s="14"/>
       <c r="N83" s="21"/>
     </row>
-    <row r="84" spans="1:16384" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:16384" hidden="1">
       <c r="A84" s="49">
         <v>42</v>
       </c>
@@ -4674,7 +4693,7 @@
       <c r="L84" s="24"/>
       <c r="M84" s="24"/>
     </row>
-    <row r="85" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:16384" s="3" customFormat="1">
       <c r="A85" s="49"/>
       <c r="B85" s="51"/>
       <c r="C85" s="14">
@@ -4706,7 +4725,7 @@
       <c r="M85" s="14"/>
       <c r="N85" s="21"/>
     </row>
-    <row r="86" spans="1:16384" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:16384" s="3" customFormat="1" hidden="1">
       <c r="A86" s="49">
         <v>43</v>
       </c>
@@ -4740,7 +4759,7 @@
       <c r="M86" s="14"/>
       <c r="N86" s="21"/>
     </row>
-    <row r="87" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:16384" s="3" customFormat="1">
       <c r="A87" s="49"/>
       <c r="B87" s="51"/>
       <c r="C87" s="14">
@@ -4772,7 +4791,7 @@
       <c r="M87" s="14"/>
       <c r="N87" s="21"/>
     </row>
-    <row r="88" spans="1:16384" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:16384" s="3" customFormat="1" hidden="1">
       <c r="A88" s="49">
         <v>44</v>
       </c>
@@ -21174,7 +21193,7 @@
       <c r="XFC88"/>
       <c r="XFD88"/>
     </row>
-    <row r="89" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:16384" s="3" customFormat="1">
       <c r="A89" s="49"/>
       <c r="B89" s="51"/>
       <c r="C89" s="24"/>
@@ -37574,7 +37593,7 @@
       <c r="XFC89"/>
       <c r="XFD89"/>
     </row>
-    <row r="90" spans="1:16384" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:16384" s="3" customFormat="1" hidden="1">
       <c r="A90" s="49">
         <v>45</v>
       </c>
@@ -37608,7 +37627,7 @@
       <c r="M90" s="14"/>
       <c r="N90" s="21"/>
     </row>
-    <row r="91" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:16384" s="3" customFormat="1">
       <c r="A91" s="49"/>
       <c r="B91" s="51"/>
       <c r="C91" s="14">
@@ -37640,7 +37659,7 @@
       <c r="M91" s="14"/>
       <c r="N91" s="21"/>
     </row>
-    <row r="92" spans="1:16384" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:16384" ht="15" hidden="1" customHeight="1">
       <c r="A92" s="49">
         <v>46</v>
       </c>
@@ -37673,7 +37692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:16384" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:16384">
       <c r="A93" s="49"/>
       <c r="B93" s="51"/>
       <c r="C93" s="27">
@@ -37702,7 +37721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:16384" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:16384" hidden="1">
       <c r="A94" s="49">
         <v>47</v>
       </c>
@@ -37733,7 +37752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:16384" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:16384">
       <c r="A95" s="49"/>
       <c r="B95" s="52"/>
       <c r="C95" s="27">
@@ -37771,6 +37790,43 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="53">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
     <mergeCell ref="A92:A93"/>
     <mergeCell ref="A94:A95"/>
     <mergeCell ref="B2:B95"/>
@@ -37787,43 +37843,6 @@
     <mergeCell ref="A72:A73"/>
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -37869,17 +37888,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" activeCellId="1" sqref="A29:XFD29 A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="3" max="3" width="52.75" bestFit="1" customWidth="1"/>
@@ -37892,7 +37911,7 @@
     <col min="10" max="10" width="26.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9">
       <c r="B2" s="35" t="s">
         <v>232</v>
       </c>
@@ -37908,7 +37927,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9">
       <c r="B3" s="61" t="s">
         <v>233</v>
       </c>
@@ -37921,7 +37940,7 @@
         <v>jdbc:mysql://11.104.134.40:3306/lddb?socketTimeout=60000&amp;useUnicode=true&amp;amp;characterEncoding=UTF-8</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:9">
       <c r="B4" s="62"/>
       <c r="C4" s="39" t="str">
         <f>"jdbc:mysql://"&amp;B2&amp;":3306/ddgl?socketTimeout=60000&amp;useUnicode=true&amp;amp;characterEncoding=UTF-8"</f>
@@ -37939,7 +37958,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9">
       <c r="B5" s="62"/>
       <c r="G5" t="str">
         <f>"lddb_省到"&amp;B14&amp;B6&amp;"基础表"</f>
@@ -37953,7 +37972,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9">
       <c r="B6" s="35" t="s">
         <v>221</v>
       </c>
@@ -37969,7 +37988,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9">
       <c r="B7" s="43">
         <v>140524004</v>
       </c>
@@ -37989,7 +38008,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" ht="40.5">
       <c r="C8" s="41" t="s">
         <v>187</v>
       </c>
@@ -37998,7 +38017,7 @@
         <v>select u.name from up_org_name u where u.name like '%南营河%'</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" ht="54">
       <c r="C9" s="41" t="s">
         <v>188</v>
       </c>
@@ -38009,18 +38028,18 @@
 inner join up_org_unit t on t.id = u.id where u.name like '%南营河%'</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9">
       <c r="C10" s="42" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9">
       <c r="B11" s="35" t="s">
         <v>222</v>
       </c>
       <c r="C11" s="40"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9">
       <c r="B12">
         <v>140524000</v>
       </c>
@@ -38032,10 +38051,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9">
       <c r="D13" s="37"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9">
       <c r="B14" s="35" t="s">
         <v>172</v>
       </c>
@@ -38045,7 +38064,7 @@
       </c>
       <c r="D14" s="37"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9">
       <c r="C15" t="str">
         <f>B14&amp;B6&amp;"到"&amp;B14</f>
         <v>陵川县南营河到陵川县</v>
@@ -38059,7 +38078,7 @@
       </c>
       <c r="H15" s="35"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9">
       <c r="B16" s="43">
         <v>483</v>
       </c>
@@ -38070,7 +38089,7 @@
       <c r="D16" s="37"/>
       <c r="H16" s="35"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8">
       <c r="D17" s="37"/>
       <c r="G17" t="s">
         <v>223</v>
@@ -38079,7 +38098,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8">
       <c r="B18" s="35" t="str">
         <f>B2</f>
         <v>11.104.134.39</v>
@@ -38096,7 +38115,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8">
       <c r="C19" t="str">
         <f>B14&amp;B6&amp;"到"&amp;B14</f>
         <v>陵川县南营河到陵川县</v>
@@ -38109,7 +38128,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8">
       <c r="D20" s="37"/>
       <c r="G20" t="s">
         <v>229</v>
@@ -38118,7 +38137,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8">
       <c r="C21" t="str">
         <f>B14&amp;"到"&amp;B6&amp;"业务表.ddgl"</f>
         <v>陵川县到南营河业务表.ddgl</v>
@@ -38127,13 +38146,13 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8">
       <c r="C22" t="str">
         <f>B14&amp;"到"&amp;B6&amp;"支撑表.ddgl"</f>
         <v>陵川县到南营河支撑表.ddgl</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8" ht="14.25" customHeight="1">
       <c r="C23" t="str">
         <f>B6&amp;"到"&amp;B14&amp;"业务表.ddgl"</f>
         <v>南营河到陵川县业务表.ddgl</v>
@@ -38142,15 +38161,15 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8">
       <c r="B25" s="43"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8">
       <c r="D26" s="37"/>
     </row>
-    <row r="27" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:8" ht="42" customHeight="1">
       <c r="B27" s="63" t="str">
         <f>"update ddgl_province.ddgl_fjbs_relation
 set is_bs = 'Y',bs_date = sysdate,ip = '"&amp;B2&amp;"'
@@ -38162,7 +38181,7 @@
       <c r="C27" s="63"/>
       <c r="D27" s="37"/>
     </row>
-    <row r="29" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:8" ht="44.25" customHeight="1">
       <c r="B29" s="63" t="str">
         <f>"update lddb.lddb_dw_to_ip
 set is_bs = 'Y',bs_date = sysdate,ip = '"&amp;H2&amp;"'
@@ -38173,17 +38192,17 @@
       </c>
       <c r="C29" s="63"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:8">
       <c r="B30" s="48"/>
       <c r="C30" s="48"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:8">
       <c r="B31" t="str">
         <f>"select * from up_org_user r where r.org_id in (select id from up_org_unit u where u.code = '"&amp;B12&amp;"')"</f>
         <v>select * from up_org_user r where r.org_id in (select id from up_org_unit u where u.code = '140524000')</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:8" ht="41.25" customHeight="1">
       <c r="B32" s="60" t="str">
         <f>"select r.*,r.rowid from lddb.lddb_dw_to_ip r
 where r.city_name like '%"&amp;B11&amp;"%' and r.is_bs = 'Y'
@@ -38208,14 +38227,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="3" max="3" width="52.75" bestFit="1" customWidth="1"/>
@@ -38228,9 +38247,9 @@
     <col min="10" max="10" width="26.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9">
       <c r="B2" s="35" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C2" s="39" t="str">
         <f>B14&amp;B6&amp;"_"&amp;B2</f>
@@ -38241,12 +38260,12 @@
         <v>lddb_高平大通_11.104.88.17</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9">
       <c r="B3" s="61" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C3" s="39" t="str">
         <f>B14&amp;B6&amp;"_"&amp;B2&amp;".ddgl"</f>
@@ -38257,7 +38276,7 @@
         <v>jdbc:mysql://11.104.88.17:3306/lddb?socketTimeout=60000&amp;useUnicode=true&amp;amp;characterEncoding=UTF-8</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:9">
       <c r="B4" s="62"/>
       <c r="C4" s="39" t="str">
         <f>"jdbc:mysql://"&amp;B2&amp;":3306/ddgl?socketTimeout=60000&amp;useUnicode=true&amp;amp;characterEncoding=UTF-8"</f>
@@ -38275,7 +38294,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9">
       <c r="B5" s="62"/>
       <c r="G5" t="str">
         <f>"lddb_省到"&amp;B14&amp;B6&amp;"基础表"</f>
@@ -38289,9 +38308,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9">
       <c r="B6" s="35" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G6" t="str">
         <f>"lddb_省到"&amp;B14&amp;B6&amp;"支撑表"</f>
@@ -38305,7 +38324,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9">
       <c r="B7" s="43">
         <v>140581021</v>
       </c>
@@ -38325,7 +38344,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" ht="40.5">
       <c r="C8" s="41" t="s">
         <v>187</v>
       </c>
@@ -38334,7 +38353,7 @@
         <v>select u.name from up_org_name u where u.name like '%大通%'</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" ht="54">
       <c r="C9" s="41" t="s">
         <v>188</v>
       </c>
@@ -38343,35 +38362,35 @@
         <v>select u.id,u.code,u.MINE_NAME_F,u.name,u.DISTRICT,u.DISTRICT_NAME,u.city,u.city_name from view_full_region u where u.name like '%大通%'</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9">
       <c r="C10" s="42" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9">
       <c r="B11" s="35" t="s">
         <v>222</v>
       </c>
       <c r="C11" s="40"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9">
       <c r="B12">
         <v>140581000</v>
       </c>
       <c r="C12" s="40" t="str">
-        <f>B6&amp;"_"&amp;B2&amp;".ddgl_infotip"</f>
-        <v>大通_11.104.88.18.ddgl_infotip</v>
+        <f>B14&amp;B6&amp;"_"&amp;B2&amp;".ddgl_infotip"</f>
+        <v>高平大通_11.104.88.18.ddgl_infotip</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9">
       <c r="D13" s="37"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9">
       <c r="B14" s="35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C14" t="str">
         <f>B14&amp;"到"&amp;B14&amp;B6</f>
@@ -38379,7 +38398,7 @@
       </c>
       <c r="D14" s="37"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9">
       <c r="C15" t="str">
         <f>B14&amp;B6&amp;"到"&amp;B14</f>
         <v>高平大通到高平</v>
@@ -38393,7 +38412,7 @@
       </c>
       <c r="H15" s="35"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9">
       <c r="B16" s="43">
         <v>467</v>
       </c>
@@ -38404,16 +38423,16 @@
       <c r="D16" s="37"/>
       <c r="H16" s="35"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8">
       <c r="D17" s="37"/>
       <c r="G17" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="H17" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8">
       <c r="B18" s="35" t="str">
         <f>B2</f>
         <v>11.104.88.18</v>
@@ -38424,35 +38443,35 @@
       </c>
       <c r="D18" s="37"/>
       <c r="G18" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="H18" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8">
       <c r="C19" t="str">
         <f>B14&amp;B6&amp;"到"&amp;B14</f>
         <v>高平大通到高平</v>
       </c>
       <c r="D19" s="37"/>
       <c r="G19" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="H19" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8">
       <c r="D20" s="37"/>
       <c r="G20" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="H20" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8">
       <c r="C21" t="str">
         <f>B14&amp;"到"&amp;B6&amp;"业务表.ddgl"</f>
         <v>高平到大通业务表.ddgl</v>
@@ -38461,13 +38480,13 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8">
       <c r="C22" t="str">
         <f>B14&amp;"到"&amp;B6&amp;"支撑表.ddgl"</f>
         <v>高平到大通支撑表.ddgl</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8" ht="14.25" customHeight="1">
       <c r="C23" t="str">
         <f>B6&amp;"到"&amp;B14&amp;"业务表.ddgl"</f>
         <v>大通到高平业务表.ddgl</v>
@@ -38476,15 +38495,15 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8">
       <c r="B25" s="43"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8">
       <c r="D26" s="37"/>
     </row>
-    <row r="27" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:8" ht="42" customHeight="1">
       <c r="B27" s="63" t="str">
         <f>"update ddgl_province.ddgl_fjbs_relation
 set is_bs = 'Y',bs_date = sysdate,ip = '"&amp;B2&amp;"'
@@ -38496,7 +38515,7 @@
       <c r="C27" s="63"/>
       <c r="D27" s="37"/>
     </row>
-    <row r="29" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:8" ht="44.25" customHeight="1">
       <c r="B29" s="63" t="str">
         <f>"update lddb.lddb_dw_to_ip
 set is_bs = 'Y',bs_date = sysdate,ip = '"&amp;H2&amp;"'
@@ -38507,17 +38526,17 @@
       </c>
       <c r="C29" s="63"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:8">
       <c r="B30" s="48"/>
       <c r="C30" s="48"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:8">
       <c r="B31" t="str">
         <f>"select * from up_org_user r where r.org_id in (select id from up_org_unit u where u.code = '"&amp;B12&amp;"')"</f>
         <v>select * from up_org_user r where r.org_id in (select id from up_org_unit u where u.code = '140581000')</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:8" ht="41.25" customHeight="1">
       <c r="B32" s="60" t="str">
         <f>"select r.*,r.rowid from lddb.lddb_dw_to_ip r
 where r.city_name like '%"&amp;B11&amp;"%' and r.is_bs = 'Y'
